--- a/switch/questions.xlsx
+++ b/switch/questions.xlsx
@@ -4,25 +4,468 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sql" sheetId="1" r:id="rId1"/>
-    <sheet name="lambda" sheetId="2" r:id="rId2"/>
-    <sheet name="redshift" sheetId="3" r:id="rId3"/>
-    <sheet name="glue" sheetId="4" r:id="rId4"/>
-    <sheet name="spark" sheetId="5" r:id="rId5"/>
-    <sheet name="pandas" sheetId="6" r:id="rId6"/>
-    <sheet name="python" sheetId="7" r:id="rId7"/>
-    <sheet name="unix" sheetId="8" r:id="rId8"/>
+    <sheet name="companies" sheetId="1" r:id="rId1"/>
+    <sheet name="sql" sheetId="9" r:id="rId2"/>
+    <sheet name="lambda" sheetId="2" r:id="rId3"/>
+    <sheet name="redshift" sheetId="3" r:id="rId4"/>
+    <sheet name="glue" sheetId="4" r:id="rId5"/>
+    <sheet name="spark" sheetId="5" r:id="rId6"/>
+    <sheet name="pandas" sheetId="6" r:id="rId7"/>
+    <sheet name="python" sheetId="7" r:id="rId8"/>
+    <sheet name="unix" sheetId="8" r:id="rId9"/>
+    <sheet name="JD" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email ID </t>
+  </si>
+  <si>
+    <t>Dropped Mail</t>
+  </si>
+  <si>
+    <t>First Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second round </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Incedo </t>
+  </si>
+  <si>
+    <t>mamta.lakhani@incedoinc.com</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>prateek.rastogi@accolitedigital.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accolite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL provides a variety of window functions (also called analytic functions) that perform calculations across a set of rows related to </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the current row. These calculations are done within a "window" defined by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OVER() clause.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Ranking Functions</t>
+  </si>
+  <si>
+    <t>These assign a rank or number to rows within a partition.</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER()</t>
+  </si>
+  <si>
+    <t>Assigns a unique sequential integer to rows, starting from 1.</t>
+  </si>
+  <si>
+    <t>RANK()</t>
+  </si>
+  <si>
+    <t>Assigns a rank to each row, with gaps in the ranking for duplicate values.</t>
+  </si>
+  <si>
+    <t>DENSE_RANK()</t>
+  </si>
+  <si>
+    <t>Assigns a rank to each row without gaps in ranking.</t>
+  </si>
+  <si>
+    <t>NTILE(n)</t>
+  </si>
+  <si>
+    <t>Here’s a comprehensive list of commonly used window functions:</t>
+  </si>
+  <si>
+    <t>Divides rows into n buckets and assigns a bucket number to each row.</t>
+  </si>
+  <si>
+    <t>2. Aggregate Window Functions</t>
+  </si>
+  <si>
+    <t>These functions calculate aggregate values over a window.</t>
+  </si>
+  <si>
+    <t>SUM()</t>
+  </si>
+  <si>
+    <t>Returns the sum of values in the window.</t>
+  </si>
+  <si>
+    <t>AVG()</t>
+  </si>
+  <si>
+    <t>Returns the average of values in the window.</t>
+  </si>
+  <si>
+    <t>MIN()</t>
+  </si>
+  <si>
+    <t>Returns the minimum value in the window.</t>
+  </si>
+  <si>
+    <t>MAX()</t>
+  </si>
+  <si>
+    <t>Returns the maximum value in the window.</t>
+  </si>
+  <si>
+    <t>COUNT()</t>
+  </si>
+  <si>
+    <t>Returns the count of rows in the window.</t>
+  </si>
+  <si>
+    <t>3. Offset Window Functions</t>
+  </si>
+  <si>
+    <t>These functions access data in previous or subsequent rows.</t>
+  </si>
+  <si>
+    <t>LAG(expression, offset, default)</t>
+  </si>
+  <si>
+    <t>Accesses data from a previous row in the same result set.</t>
+  </si>
+  <si>
+    <t>LEAD(expression, offset, default)</t>
+  </si>
+  <si>
+    <t>Accesses data from a subsequent row in the same result set.</t>
+  </si>
+  <si>
+    <t>FIRST_VALUE(expression)</t>
+  </si>
+  <si>
+    <t>Returns the first value in the window frame.</t>
+  </si>
+  <si>
+    <t>LAST_VALUE(expression)</t>
+  </si>
+  <si>
+    <t>Returns the last value in the window frame.</t>
+  </si>
+  <si>
+    <t>NTH_VALUE(expression, n)</t>
+  </si>
+  <si>
+    <t>Returns the nth value in the window frame.</t>
+  </si>
+  <si>
+    <t>4. Value Navigation Functions</t>
+  </si>
+  <si>
+    <t>These provide flexibility to navigate through rows within the partition.</t>
+  </si>
+  <si>
+    <t>PERCENT_RANK()</t>
+  </si>
+  <si>
+    <t>Calculates the relative rank of a row as a percentage of total rows.</t>
+  </si>
+  <si>
+    <t>CUME_DIST()</t>
+  </si>
+  <si>
+    <t>Calculates the cumulative distribution of a value in the window.</t>
+  </si>
+  <si>
+    <t>5. Statistical and Percentile Functions</t>
+  </si>
+  <si>
+    <t>These provide advanced statistical calculations.</t>
+  </si>
+  <si>
+    <t>PERCENTILE_CONT()</t>
+  </si>
+  <si>
+    <t>Returns the continuous percentile value.</t>
+  </si>
+  <si>
+    <t>PERCENTILE_DISC()</t>
+  </si>
+  <si>
+    <t>Returns the discrete percentile value.</t>
+  </si>
+  <si>
+    <t>MEDIAN() (Optional)</t>
+  </si>
+  <si>
+    <t>Calculates the median of values (in databases that support it, like Oracle).</t>
+  </si>
+  <si>
+    <t>6. Windowing Clause</t>
+  </si>
+  <si>
+    <t>All these functions use the OVER() clause, which specifies:Partitioning (PARTITION BY): Divides the result set into partitions.</t>
+  </si>
+  <si>
+    <t>Ordering (ORDER BY): Defines the order of rows in the window.</t>
+  </si>
+  <si>
+    <t>Framing: Determines the range of rows considered in the calculation, such as:</t>
+  </si>
+  <si>
+    <t>ROWS BETWEEN UNBOUNDED PRECEDING AND CURRENT ROW</t>
+  </si>
+  <si>
+    <t>RANGE BETWEEN CURRENT ROW AND UNBOUNDED FOLLOWING</t>
+  </si>
+  <si>
+    <t>Example Data</t>
+  </si>
+  <si>
+    <t>Suppose you have the following sales table:</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>sales_date</t>
+  </si>
+  <si>
+    <t>sales_amount</t>
+  </si>
+  <si>
+    <t>1. Using LAG to Compare with Previous Row</t>
+  </si>
+  <si>
+    <t>Find the sales amount for the previous day for each employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    employee_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sales_date,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sales_amount,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LAG(sales_amount, 1, 0) OVER (PARTITION BY employee_id ORDER BY sales_date) AS previous_sales</t>
+  </si>
+  <si>
+    <t>FROM sales;</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>previous_sales</t>
+  </si>
+  <si>
+    <t>Find the sales amount for the next day for each employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LEAD(sales_amount, 1, 0) OVER (PARTITION BY employee_id ORDER BY sales_date) AS next_sales</t>
+  </si>
+  <si>
+    <t>next_sales</t>
+  </si>
+  <si>
+    <t>3. Calculate Difference Between Current and Previous Sales</t>
+  </si>
+  <si>
+    <t>Using LAG, calculate the difference in sales compared to the previous day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sales_amount - LAG(sales_amount, 1, 0) OVER (PARTITION BY employee_id ORDER BY sales_date) AS sales_difference</t>
+  </si>
+  <si>
+    <t>sales_difference</t>
+  </si>
+  <si>
+    <t>2. Using LEAD to Compare with Next Row</t>
+  </si>
+  <si>
+    <t>4. Using LEAD to Predict Future Trend</t>
+  </si>
+  <si>
+    <t>Find sales growth by comparing current sales with the next day’s sales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LEAD(sales_amount, 1, 0) OVER (PARTITION BY employee_id ORDER BY sales_date) - sales_amount AS growth</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>Key Points:</t>
+  </si>
+  <si>
+    <t>Use PARTITION BY when analyzing data separately for different groups (e.g., employees or departments).</t>
+  </si>
+  <si>
+    <t>Use ORDER BY to specify the sequence in which rows are processed.</t>
+  </si>
+  <si>
+    <t>The default value in LEAD or LAG helps handle boundary conditions (e.g., first or last row).</t>
+  </si>
+  <si>
+    <t>Let me know if you'd like more examples or clarifications!</t>
+  </si>
+  <si>
+    <t>1. RANK()</t>
+  </si>
+  <si>
+    <t>Assigns a rank to rows in an ordered result set.</t>
+  </si>
+  <si>
+    <t>If there are ties (i.e., rows with the same value), they receive the same rank, but the next rank is skipped (leaving gaps).</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>RANK() OVER (PARTITION BY column ORDER BY column)</t>
+  </si>
+  <si>
+    <t>2. DENSE_RANK()</t>
+  </si>
+  <si>
+    <t>Similar to RANK(), but does not skip ranks if there are ties. It assigns consecutive ranks regardless of ties.</t>
+  </si>
+  <si>
+    <t>DENSE_RANK() OVER (PARTITION BY column ORDER BY column)</t>
+  </si>
+  <si>
+    <t>Suppose you have a sales table:</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>Example 1: Using RANK()</t>
+  </si>
+  <si>
+    <t>Assign a rank to employees in each department based on their sales_amount (highest first).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    department_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RANK() OVER (PARTITION BY department_id ORDER BY sales_amount DESC) AS rank</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>Notice the tie for sales_amount = 400 (employees 2 and 3). Both are ranked 2, but the next rank is 4, skipping 3.</t>
+  </si>
+  <si>
+    <t>Example 2: Using DENSE_RANK()</t>
+  </si>
+  <si>
+    <t>Assign a dense rank to employees in each department based on their sales_amount (highest first).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DENSE_RANK() OVER (PARTITION BY department_id ORDER BY sales_amount DESC) AS dense_rank</t>
+  </si>
+  <si>
+    <t>dense_rank</t>
+  </si>
+  <si>
+    <t>Notice the tie for sales_amount = 400 (employees 2 and 3). Both are ranked 2, but the next rank is 3 for RANK() and 2 for DENSE_RANK().</t>
+  </si>
+  <si>
+    <t>Key Differences</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Handling Ties</t>
+  </si>
+  <si>
+    <t>Assigns the same rank to ties but skips the next rank(s).</t>
+  </si>
+  <si>
+    <t>Assigns the same rank to ties but does not skip ranks.</t>
+  </si>
+  <si>
+    <t>Rank Progression</t>
+  </si>
+  <si>
+    <t>May have gaps in ranking numbers.</t>
+  </si>
+  <si>
+    <t>Ranks are sequential, with no gaps.</t>
+  </si>
+  <si>
+    <t>Example 3: Comparing Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RANK() OVER (PARTITION BY department_id ORDER BY sales_amount DESC) AS rank,</t>
+  </si>
+  <si>
+    <t>When to Use Each</t>
+  </si>
+  <si>
+    <t>Use RANK():</t>
+  </si>
+  <si>
+    <t>When gaps in ranks are acceptable or meaningful.</t>
+  </si>
+  <si>
+    <t>For example, in a competition where skipping ranks after a tie is standard.</t>
+  </si>
+  <si>
+    <t>Use DENSE_RANK():</t>
+  </si>
+  <si>
+    <t>When you need continuous ranking without gaps.</t>
+  </si>
+  <si>
+    <t>For example, assigning priorities or categorizing data without skipping numbers.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,16 +473,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +518,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68,6 +559,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48227</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>44853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10387853"/>
+          <a:ext cx="5695992" cy="4000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>162486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258736" y="9665074"/>
+          <a:ext cx="5081867" cy="4926133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,9 +929,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.06640625" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45637.708333333336</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -369,13 +1297,1609 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:O162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q168" sqref="Q168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+      <c r="K85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="K86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C87">
+        <v>150</v>
+      </c>
+      <c r="K87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C88">
+        <v>120</v>
+      </c>
+      <c r="K88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C89">
+        <v>200</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C90">
+        <v>180</v>
+      </c>
+      <c r="K90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C91">
+        <v>220</v>
+      </c>
+      <c r="K91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A92" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
+      <c r="K94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="K95" t="s">
+        <v>73</v>
+      </c>
+      <c r="L95" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>80</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>500</v>
+      </c>
+      <c r="M96">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>400</v>
+      </c>
+      <c r="M97">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>82</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>400</v>
+      </c>
+      <c r="M98">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>300</v>
+      </c>
+      <c r="M99">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>84</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100">
+        <v>300</v>
+      </c>
+      <c r="M100">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>85</v>
+      </c>
+      <c r="K101">
+        <v>6</v>
+      </c>
+      <c r="L101">
+        <v>200</v>
+      </c>
+      <c r="M101">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C103">
+        <v>150</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+      <c r="K103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C104">
+        <v>120</v>
+      </c>
+      <c r="D104">
+        <v>150</v>
+      </c>
+      <c r="K104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C105">
+        <v>200</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C106">
+        <v>180</v>
+      </c>
+      <c r="D106">
+        <v>200</v>
+      </c>
+      <c r="K106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C107">
+        <v>220</v>
+      </c>
+      <c r="D107">
+        <v>180</v>
+      </c>
+      <c r="K107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A108" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="K109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="K110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+      <c r="K111" t="s">
+        <v>112</v>
+      </c>
+      <c r="L111" t="s">
+        <v>73</v>
+      </c>
+      <c r="M111" t="s">
+        <v>75</v>
+      </c>
+      <c r="N111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+      <c r="K112">
+        <v>101</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>500</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="K113">
+        <v>101</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>400</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>87</v>
+      </c>
+      <c r="K114">
+        <v>101</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>400</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="K115">
+        <v>102</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>300</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>84</v>
+      </c>
+      <c r="K116">
+        <v>102</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+      <c r="M116">
+        <v>300</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" t="s">
+        <v>88</v>
+      </c>
+      <c r="K117">
+        <v>102</v>
+      </c>
+      <c r="L117">
+        <v>6</v>
+      </c>
+      <c r="M117">
+        <v>200</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>150</v>
+      </c>
+      <c r="K118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C119">
+        <v>150</v>
+      </c>
+      <c r="D119">
+        <v>120</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C120">
+        <v>120</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C121">
+        <v>200</v>
+      </c>
+      <c r="D121">
+        <v>180</v>
+      </c>
+      <c r="K121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C122">
+        <v>180</v>
+      </c>
+      <c r="D122">
+        <v>220</v>
+      </c>
+      <c r="K122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C123">
+        <v>220</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A124" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="K124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>90</v>
+      </c>
+      <c r="K125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="K126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+      <c r="K127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
+      <c r="K128" t="s">
+        <v>112</v>
+      </c>
+      <c r="L128" t="s">
+        <v>73</v>
+      </c>
+      <c r="M128" t="s">
+        <v>75</v>
+      </c>
+      <c r="N128" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="K129">
+        <v>101</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>500</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>91</v>
+      </c>
+      <c r="K130">
+        <v>101</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>400</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+      <c r="K131">
+        <v>101</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>400</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>84</v>
+      </c>
+      <c r="K132">
+        <v>102</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>300</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>73</v>
+      </c>
+      <c r="B133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" t="s">
+        <v>92</v>
+      </c>
+      <c r="K133">
+        <v>102</v>
+      </c>
+      <c r="L133">
+        <v>5</v>
+      </c>
+      <c r="M133">
+        <v>300</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C134">
+        <v>100</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
+      <c r="K134">
+        <v>102</v>
+      </c>
+      <c r="L134">
+        <v>6</v>
+      </c>
+      <c r="M134">
+        <v>200</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C135">
+        <v>150</v>
+      </c>
+      <c r="D135">
+        <v>50</v>
+      </c>
+      <c r="K135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C136">
+        <v>120</v>
+      </c>
+      <c r="D136">
+        <v>-30</v>
+      </c>
+      <c r="K136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C137">
+        <v>200</v>
+      </c>
+      <c r="D137">
+        <v>200</v>
+      </c>
+      <c r="K137" t="s">
+        <v>125</v>
+      </c>
+      <c r="L137" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C138">
+        <v>180</v>
+      </c>
+      <c r="D138">
+        <v>-20</v>
+      </c>
+      <c r="K138" t="s">
+        <v>126</v>
+      </c>
+      <c r="L138" t="s">
+        <v>127</v>
+      </c>
+      <c r="M138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C139">
+        <v>220</v>
+      </c>
+      <c r="D139">
+        <v>40</v>
+      </c>
+      <c r="K139" t="s">
+        <v>129</v>
+      </c>
+      <c r="L139" t="s">
+        <v>130</v>
+      </c>
+      <c r="M139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A140" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="K140" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>95</v>
+      </c>
+      <c r="K141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>78</v>
+      </c>
+      <c r="K142" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>79</v>
+      </c>
+      <c r="K143" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>80</v>
+      </c>
+      <c r="K144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>81</v>
+      </c>
+      <c r="K145" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>96</v>
+      </c>
+      <c r="K146" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>83</v>
+      </c>
+      <c r="K147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>84</v>
+      </c>
+      <c r="K148" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149" t="s">
+        <v>97</v>
+      </c>
+      <c r="K149" t="s">
+        <v>112</v>
+      </c>
+      <c r="L149" t="s">
+        <v>73</v>
+      </c>
+      <c r="M149" t="s">
+        <v>75</v>
+      </c>
+      <c r="N149" t="s">
+        <v>117</v>
+      </c>
+      <c r="O149" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>50</v>
+      </c>
+      <c r="K150">
+        <v>101</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>500</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151">
+        <v>-30</v>
+      </c>
+      <c r="K151">
+        <v>101</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>400</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C152">
+        <v>120</v>
+      </c>
+      <c r="D152">
+        <v>-120</v>
+      </c>
+      <c r="K152">
+        <v>101</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>400</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C153">
+        <v>200</v>
+      </c>
+      <c r="D153">
+        <v>-20</v>
+      </c>
+      <c r="K153">
+        <v>102</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>300</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" s="5">
+        <v>44928</v>
+      </c>
+      <c r="C154">
+        <v>180</v>
+      </c>
+      <c r="D154">
+        <v>40</v>
+      </c>
+      <c r="K154">
+        <v>102</v>
+      </c>
+      <c r="L154">
+        <v>5</v>
+      </c>
+      <c r="M154">
+        <v>300</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" s="5">
+        <v>44929</v>
+      </c>
+      <c r="C155">
+        <v>220</v>
+      </c>
+      <c r="D155">
+        <v>-220</v>
+      </c>
+      <c r="K155">
+        <v>102</v>
+      </c>
+      <c r="L155">
+        <v>6</v>
+      </c>
+      <c r="M155">
+        <v>200</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="K156" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>99</v>
+      </c>
+      <c r="K157" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>100</v>
+      </c>
+      <c r="K158" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+      <c r="K159" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>102</v>
+      </c>
+      <c r="K160" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K161" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.45">
+      <c r="K162" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -407,9 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -421,6 +2943,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -429,7 +2965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -443,12 +2979,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/switch/questions.xlsx
+++ b/switch/questions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
   <si>
     <t>Company</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>For example, assigning priorities or categorizing data without skipping numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>JOINS</t>
   </si>
 </sst>
 </file>
@@ -631,6 +637,386 @@
         <a:xfrm>
           <a:off x="8258736" y="9665074"/>
           <a:ext cx="5081867" cy="4926133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>610721</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>5198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30480000"/>
+          <a:ext cx="4308662" cy="6101198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>386604</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152810</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6684310" y="30603265"/>
+          <a:ext cx="5615676" cy="5490882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>643032</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37741411"/>
+          <a:ext cx="4340973" cy="4656045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>16810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>62699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6589059" y="37309986"/>
+          <a:ext cx="4953000" cy="5424713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>321612</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43568471"/>
+          <a:ext cx="4669494" cy="5098676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>621926</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>45020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6947647" y="43389175"/>
+          <a:ext cx="3871632" cy="5065257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>1415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638985" y="49137794"/>
+          <a:ext cx="6673102" cy="7161974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548651</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>176639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="57323691"/>
+          <a:ext cx="4896533" cy="5068007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21397</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>46465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="57026735"/>
+          <a:ext cx="4772691" cy="7744906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529599</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>48642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="63044294"/>
+          <a:ext cx="4877481" cy="7287642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,7 +1318,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1297,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O162"/>
+  <dimension ref="A4:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q168" sqref="Q168"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q238" sqref="Q238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2886,14 +3272,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K161" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K162" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A169" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E171" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/switch/questions.xlsx
+++ b/switch/questions.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="companies" sheetId="1" r:id="rId1"/>
     <sheet name="sql" sheetId="9" r:id="rId2"/>
     <sheet name="python" sheetId="7" r:id="rId3"/>
     <sheet name="hadoop" sheetId="11" r:id="rId4"/>
-    <sheet name="snowflake" sheetId="12" r:id="rId5"/>
-    <sheet name="lambda" sheetId="2" r:id="rId6"/>
-    <sheet name="redshift" sheetId="3" r:id="rId7"/>
-    <sheet name="glue" sheetId="4" r:id="rId8"/>
-    <sheet name="pyspark" sheetId="5" r:id="rId9"/>
+    <sheet name="pyspark" sheetId="5" r:id="rId5"/>
+    <sheet name="snowflake" sheetId="12" r:id="rId6"/>
+    <sheet name="lambda" sheetId="2" r:id="rId7"/>
+    <sheet name="redshift" sheetId="3" r:id="rId8"/>
+    <sheet name="glue" sheetId="4" r:id="rId9"/>
     <sheet name="pandas" sheetId="6" r:id="rId10"/>
     <sheet name="unix" sheetId="8" r:id="rId11"/>
     <sheet name="selfLearning" sheetId="10" r:id="rId12"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="761">
   <si>
     <t>Company</t>
   </si>
@@ -1850,6 +1850,477 @@
   </si>
   <si>
     <t>KERBOS AUTHENTICATION</t>
+  </si>
+  <si>
+    <t>what kind of encryption is commonly used in hadoop eco system</t>
+  </si>
+  <si>
+    <t>In the Hadoop ecosystem, several encryption methods are commonly used to ensure data security:</t>
+  </si>
+  <si>
+    <t>1. Transparent Data Encryption (TDE) in HDFS</t>
+  </si>
+  <si>
+    <t>Description: HDFS provides transparent encryption, which means data is encrypted and decrypted transparently without requiring changes to user application code.</t>
+  </si>
+  <si>
+    <t>How It Works: Once configured, data read from and written to special HDFS directories is encrypted and decrypted automatically.</t>
+  </si>
+  <si>
+    <t>Benefits: Ensures data at rest is encrypted, providing an additional layer of security.</t>
+  </si>
+  <si>
+    <t>2. Kerberos Authentication</t>
+  </si>
+  <si>
+    <t>Description: Kerberos is used for secure authentication.</t>
+  </si>
+  <si>
+    <t>How It Works: Users and services authenticate with the Kerberos Key Distribution Center (KDC) to obtain tickets for accessing Hadoop services.</t>
+  </si>
+  <si>
+    <t>Benefits: Prevents unauthorized access and ensures mutual authentication between users and services.</t>
+  </si>
+  <si>
+    <t>3. SSL/TLS for Data in Transit</t>
+  </si>
+  <si>
+    <t>Description: SSL (Secure Sockets Layer) and TLS (Transport Layer Security) are used to encrypt data as it moves between nodes in the Hadoop cluster.</t>
+  </si>
+  <si>
+    <t>How It Works: Encrypts data during transmission to prevent interception and tampering.</t>
+  </si>
+  <si>
+    <t>Benefits: Ensures secure communication within the cluster.</t>
+  </si>
+  <si>
+    <t>4. Symmetric Key Encryption</t>
+  </si>
+  <si>
+    <t>Description: Symmetric key encryption algorithms like AES (Advanced Encryption Standard) are used for encrypting data.</t>
+  </si>
+  <si>
+    <t>How It Works: Uses the same key for both encryption and decryption.</t>
+  </si>
+  <si>
+    <t>Benefits: Efficient for large-scale data encryption and decryption.</t>
+  </si>
+  <si>
+    <t>5. Asymmetric Key Encryption</t>
+  </si>
+  <si>
+    <t>Description: Asymmetric key encryption algorithms like RSA (Rivest-Shamir-Adleman) are used for secure key exchange and digital signatures.</t>
+  </si>
+  <si>
+    <t>How It Works: Uses a pair of keys (public and private) for encryption and decryption.</t>
+  </si>
+  <si>
+    <t>Benefits: Provides secure key exchange and authentication.</t>
+  </si>
+  <si>
+    <t>TDE in HDFS: Encrypts data at rest.</t>
+  </si>
+  <si>
+    <t>Kerberos: Ensures secure authentication.</t>
+  </si>
+  <si>
+    <t>SSL/TLS: Encrypts data in transit.</t>
+  </si>
+  <si>
+    <t>Symmetric Key Encryption: Efficient for large-scale data encryption.</t>
+  </si>
+  <si>
+    <t>Asymmetric Key Encryption: Secure key exchange and authentication.</t>
+  </si>
+  <si>
+    <t>These encryption methods help protect data within the Hadoop ecosystem, ensuring both security and compliance with regulatory standards.</t>
+  </si>
+  <si>
+    <t>import os</t>
+  </si>
+  <si>
+    <t>import paramiko</t>
+  </si>
+  <si>
+    <t>from paramiko import SSHClient, AutoAddPolicy</t>
+  </si>
+  <si>
+    <t>def split_file(file_path, chunk_size):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Splits a file into chunks."""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    with open(file_path, 'rb') as f:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        chunk_number = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        while True:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            chunk = f.read(chunk_size)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if not chunk:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            yield chunk, chunk_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            chunk_number += 1</t>
+  </si>
+  <si>
+    <t>def upload_chunks_via_ssh(file_path, output_dir, chunk_size, ssh_host, ssh_port, ssh_user, ssh_key_path):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Uploads file chunks to HDFS via SSH."""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Initialize SSH client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ssh_client = SSHClient()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ssh_client.set_missing_host_key_policy(AutoAddPolicy())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ssh_client.connect(ssh_host, port=ssh_port, username=ssh_user, key_filename=ssh_key_path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sftp_client = ssh_client.open_sftp()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    for chunk, chunk_number in split_file(file_path, chunk_size):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        chunk_file_name = f"{os.path.basename(file_path)}_part{chunk_number}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        chunk_file_path = os.path.join('/tmp', chunk_file_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        with open(chunk_file_path, 'wb') as chunk_file:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            chunk_file.write(chunk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        sftp_client.put(chunk_file_path, chunk_file_path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # Move the chunk to HDFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hdfs_chunk_path = os.path.join(output_dir, chunk_file_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ssh_client.exec_command(f'hdfs dfs -moveFromLocal {chunk_file_path} {hdfs_chunk_path}')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print(f"Uploaded and moved chunk {chunk_number} to {hdfs_chunk_path}")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # Clean up local chunk file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        os.remove(chunk_file_path)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sftp_client.close()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ssh_client.close()</t>
+  </si>
+  <si>
+    <t># Parameters</t>
+  </si>
+  <si>
+    <t>file_path = "path/to/your/1GBfile"</t>
+  </si>
+  <si>
+    <t>output_dir = "/path/to/hdfs/output"</t>
+  </si>
+  <si>
+    <t>chunk_size = 128 * 1024 * 1024  # 128 MB</t>
+  </si>
+  <si>
+    <t>ssh_host = "your_hadoop_namenode"</t>
+  </si>
+  <si>
+    <t>ssh_port = 22</t>
+  </si>
+  <si>
+    <t>ssh_user = "your_ssh_username"</t>
+  </si>
+  <si>
+    <t>ssh_key_path = "path/to/your/private/key"</t>
+  </si>
+  <si>
+    <t># Upload the file in chunks via SSH</t>
+  </si>
+  <si>
+    <t>upload_chunks_via_ssh(file_path, output_dir, chunk_size, ssh_host, ssh_port, ssh_user, ssh_key_path)</t>
+  </si>
+  <si>
+    <t>add ssh encryption , dont use boto3</t>
+  </si>
+  <si>
+    <t>What are the main advantages of using PySpark over traditional Python for big data processing?</t>
+  </si>
+  <si>
+    <t>PySpark, the Python API for Apache Spark, offers several advantages over traditional Python for big data processing. These include:</t>
+  </si>
+  <si>
+    <t>Scalability for handling massive datasets.</t>
+  </si>
+  <si>
+    <t>High performance through parallel processing.</t>
+  </si>
+  <si>
+    <t>Fault tolerance for data reliability.</t>
+  </si>
+  <si>
+    <t>Integration with other big data tools within the Apache ecosystem.</t>
+  </si>
+  <si>
+    <t>How do you create a SparkSession in PySpark? What are its main uses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In PySpark, SparkSession is the entry point to using the Spark functionality, and it’s created using the SparkSession.builder API. </t>
+  </si>
+  <si>
+    <t>Its main uses include:</t>
+  </si>
+  <si>
+    <t>Interacting with Spark SQL to process structured data.</t>
+  </si>
+  <si>
+    <t>Creating DataFrames.</t>
+  </si>
+  <si>
+    <t>Configuring Spark properties.</t>
+  </si>
+  <si>
+    <t>Managing SparkContext and SparkSession lifecycle.</t>
+  </si>
+  <si>
+    <t>Here it’s an example of how a SparkSession can be create</t>
+  </si>
+  <si>
+    <t>from pyspark.sql import SparkSession</t>
+  </si>
+  <si>
+    <t>spark = SparkSession.builder \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         .appName("MySparkApp") \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         .master("local[*]") \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         .getOrCreate()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Describe the different ways to read data into PySpark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PySpark supports reading data from various sources, such as CSV, Parquet, and JSON, among others. For this aim, it provides different methods, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">including spark.read.csv(), spark.read.parquet(), spark.read.json(), spark.read.format(), spark.read.load(). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here it’s an example of how data can be read into PySpark: </t>
+  </si>
+  <si>
+    <t>df_from_csv = spark.read.csv("my_file.csv", header=True)</t>
+  </si>
+  <si>
+    <t>df_from_parquet = spark.read.parquet("my_file.parquet")</t>
+  </si>
+  <si>
+    <t>df_from_json = spark.read.json("my_file.json")</t>
+  </si>
+  <si>
+    <t>How do you handle missing data in PySpark?</t>
+  </si>
+  <si>
+    <t>In PySpark, we can handle missing data using several methods:</t>
+  </si>
+  <si>
+    <t>We can drop rows or columns containing missing values using the method .dropna().</t>
+  </si>
+  <si>
+    <t>We can fill missing data with a specific value or use interpolation methods with the method .fillna().</t>
+  </si>
+  <si>
+    <t>We can impute missing values using statistical methods, such as mean or median, using Imputer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here it’s an example of how missing data can be handled in PySpark: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># How to drop rows </t>
+  </si>
+  <si>
+    <t>df_from_csv.dropna(how="any")</t>
+  </si>
+  <si>
+    <t># How to fill missing values with a constant</t>
+  </si>
+  <si>
+    <t>df_from_parquet.fillna(value=2)</t>
+  </si>
+  <si>
+    <t># How to impute values with median</t>
+  </si>
+  <si>
+    <t>from pyspark.ml.feature import Imputer</t>
+  </si>
+  <si>
+    <t>imputer = Imputer(strategy="median", inputCols=["price","rooms"], outputCols=["price_imputed","rooms_imputed"])</t>
+  </si>
+  <si>
+    <t>model = imputer.fit(df_from_json)</t>
+  </si>
+  <si>
+    <t>df_imputed = model.transform(df_from_json)</t>
+  </si>
+  <si>
+    <t>How can you cache data in PySpark to improve performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of PySpark's advantages is that it allows us to use the methods .cache() or .persist() to store the data in memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">or at the specified storage level. This task improves performance by avoiding repeated computations and reducing the need </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for data serialization and deserialization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here it’s an example of how to cache data in PySpark: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># How to cache data in memory </t>
+  </si>
+  <si>
+    <t>df_from_csv.cache()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># How to persist data in local disk </t>
+  </si>
+  <si>
+    <t>df_from_csv.persist(storageLevel=StorageLevel.DISK_ONLY)</t>
+  </si>
+  <si>
+    <t>Describe performing joins in PySpark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyspark allows us to perform several types of joins: inner, outer, left, and right joins. By using the .join() method, </t>
+  </si>
+  <si>
+    <t>we can specify the join condition on the on parameter and the join type using the how parameter, as shown in the example:</t>
+  </si>
+  <si>
+    <t># How to inner join two datasets</t>
+  </si>
+  <si>
+    <t>df_from_csv.join(df_from_json, on="id", how="inner")</t>
+  </si>
+  <si>
+    <t># How to outer datasets</t>
+  </si>
+  <si>
+    <t>df_from_json.join(df_from_parquet, on="product_id", how="outer")</t>
+  </si>
+  <si>
+    <t>What are the key differences between RDDs, DataFrames, and Datasets in PySpark?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spark Resilient Distributed Datasets (RDD), DataFrame, and Datasets are key abstractions in Spark that enable us to work with structured data </t>
+  </si>
+  <si>
+    <t>in a distributed computing environment. Even though they are all ways of representing data, they have key differences:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDDs are low-level APIs that lack a schema and offer control over the data. They are immutable collections of objects </t>
+  </si>
+  <si>
+    <t>DataFrames are high-level APIs built on top of RDDs optimized for performance but are not safe-type. They organize structured and semi-structured data into named columns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datasets combine the benefits of RDDs and DataFrames. They are high-level APIs that provide safe-type abstraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They support Python and Scala and provide compile-time type checking while being faster than DataFrames. </t>
+  </si>
+  <si>
+    <t>Explain the concept of lazy evaluation in PySpark. How does it impact performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PySpark implements a strategy called lazy evaluation, where the transformations applied on distributed datasets (RDDs, DataFrames, or Datasets) are </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not executed immediately. On the contrary, Spark builds a sequence of operations or transformations to be performed on the data called a directed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acyclic graph (DAG). This lazy evaluation improves performance and optimizes execution because the computation is deferred until an action is </t>
+  </si>
+  <si>
+    <t>triggered and strictly necessary.</t>
+  </si>
+  <si>
+    <t>What is the role of partitioning in PySpark? How can it improve performance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In PySpark, data partitioning is the key feature that helps us distribute the load evenly across nodes in a cluster. Partitioning refers to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the action of dividing data into smaller chunks (partitions) which are processed independently and in parallel across a cluster. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It improves performance by enabling parallel processing, reducing data movement, and improving resource utilization. Partitioning can be </t>
+  </si>
+  <si>
+    <t>controlled using methods such as .repartition() and .coalesce().</t>
+  </si>
+  <si>
+    <t>Explain the concept of broadcast variables in PySpark and provide a use case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadcast variables are a key feature of Spark distributed computing frameworks. In PySpark, they are read-only shared variables that are cached and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">distributed to the cluster nodes to avoid shuffle operations. They can be very useful when we have a distributed machine-learning application that needs </t>
+  </si>
+  <si>
+    <t>to use and load a pre-trained model. We broadcast the model as a variable, and that helps us reduce data transfer overhead and improve performance.</t>
+  </si>
+  <si>
+    <t>What is a Spark Driver, and what are its responsibilities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spark Driver is the core process that orchestrates Spark applications, by executing tasks across the clusters. </t>
+  </si>
+  <si>
+    <t>It communicates with the cluster manager to allocate resources, schedule tasks, and monitor the execution of Spark jobs.</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +2360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1932,6 +2403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1960,7 +2437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1982,6 +2459,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3607,6 +4086,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>338816</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>110477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7138988" y="88387237"/>
+          <a:ext cx="4858428" cy="6735115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4316,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:O453"/>
   <sheetViews>
-    <sheetView topLeftCell="A433" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G460" sqref="G460"/>
+    <sheetView topLeftCell="A307" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S367" sqref="S367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7295,10 +7812,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M409"/>
+  <dimension ref="A3:M537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="C446" sqref="C446"/>
+    <sheetView topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="D544" sqref="D544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8676,6 +9193,440 @@
       <c r="H409" s="18"/>
       <c r="I409" s="18"/>
     </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A447" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="B447" s="18"/>
+      <c r="C447" s="18"/>
+      <c r="D447" s="18"/>
+      <c r="E447" s="18"/>
+      <c r="F447" s="18"/>
+      <c r="G447" s="18"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A450" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A451" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A452" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A453" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A454" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A455" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A456" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A457" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A458" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A459" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A460" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A461" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A462" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A463" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A464" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A465" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A466" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A467" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A468" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A469" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A470" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A471" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A472" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A473" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A474" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A475" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A476" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A477" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A480" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="20"/>
+      <c r="D480" s="20"/>
+      <c r="E480" s="20"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="20"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A482" s="19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A483" s="19" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A484" s="19" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A485" s="19"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A486" s="19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A487" s="19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A488" s="19" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A489" s="19" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A490" s="19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A491" s="19" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A492" s="19" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A493" s="19" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A494" s="19" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A495" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A496" s="19"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A497" s="19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A498" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A499" s="19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A500" s="19" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A501" s="19" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A502" s="19" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A503" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A504" s="19" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A505" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A506" s="19" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A507" s="19" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A508" s="19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A509" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A510" s="19" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A511" s="19" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A512" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A513" s="19" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A514" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A515" s="19" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A516" s="19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A517" s="19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A518" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A519" s="19" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A520" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A521" s="19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A522" s="19" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A523" s="19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A524" s="19" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A525" s="19" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A526" s="19"/>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A527" s="19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A528" s="19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A529" s="19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A530" s="19" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A531" s="19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A532" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A533" s="19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A534" s="19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A535" s="19"/>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A536" s="19" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A537" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8685,12 +9636,433 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="22" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="22" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="22" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="22" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="22" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="22" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="22" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="22" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="22" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="22" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C25" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="22" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="22" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="22" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="22" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="22" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="22" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="22" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="22" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="22" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="22" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="22" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="22" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="22" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="22" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="22" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="22" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="22" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="22" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="22" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="22" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="22" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="22" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="22" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="22" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="22" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="22" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="22" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="22" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="22" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="22" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="22" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="22" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="22" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="22" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="22" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="22" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="22" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="22" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="22" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8735,9 +10107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
